--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBD936E-D6A2-4CF6-BA96-176CA95670B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7620444E-72F3-49CD-8E2E-E9F7E859C02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="316">
   <si>
     <t>setting_name</t>
   </si>
@@ -986,6 +986,15 @@
   </si>
   <si>
     <t>instance_name</t>
+  </si>
+  <si>
+    <t>GR_LAST</t>
+  </si>
+  <si>
+    <t>GR_AINDA</t>
+  </si>
+  <si>
+    <t>PARPAD3</t>
   </si>
 </sst>
 </file>
@@ -2866,7 +2875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BBE916-BF25-4564-8A64-9F407011F034}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
@@ -3003,7 +3012,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -3874,9 +3883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4502,14 +4511,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B62" s="10"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B63" s="10"/>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>313</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>314</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B64" s="10"/>
+      <c r="A64" t="s">
+        <v>315</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="10"/>

--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7620444E-72F3-49CD-8E2E-E9F7E859C02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A578D6ED-1306-4794-8D23-90680C2AF765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30360" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="318">
   <si>
     <t>setting_name</t>
   </si>
@@ -995,6 +995,12 @@
   </si>
   <si>
     <t>PARPAD3</t>
+  </si>
+  <si>
+    <t>CONT</t>
+  </si>
+  <si>
+    <t>VISNUMBER</t>
   </si>
 </sst>
 </file>
@@ -3884,8 +3890,8 @@
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4423,6 +4429,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>316</v>
+      </c>
+      <c r="B49" t="s">
+        <v>286</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>226</v>
@@ -4547,52 +4564,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="10"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>317</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B67" s="10"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B68" s="10"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B71" s="10"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B72" s="10"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B77" s="10"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B78" s="10"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B80" s="10"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.35">

--- a/app/config/tables/MIF/forms/MIF/MIF.xlsx
+++ b/app/config/tables/MIF/forms/MIF/MIF.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A578D6ED-1306-4794-8D23-90680C2AF765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B68CFB-965E-4F1A-8397-BADC5A89F0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30360" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="338">
   <si>
     <t>setting_name</t>
   </si>
@@ -1001,6 +1001,66 @@
   </si>
   <si>
     <t>VISNUMBER</t>
+  </si>
+  <si>
+    <t>VAC1DATA</t>
+  </si>
+  <si>
+    <t>VAC2DATA</t>
+  </si>
+  <si>
+    <t>VAC3DATA</t>
+  </si>
+  <si>
+    <t>VAC4DATA</t>
+  </si>
+  <si>
+    <t>VAC5DATA</t>
+  </si>
+  <si>
+    <t>VAC6DATA</t>
+  </si>
+  <si>
+    <t>VAC7DATA</t>
+  </si>
+  <si>
+    <t>VAC8DATA</t>
+  </si>
+  <si>
+    <t>VAC9DATA</t>
+  </si>
+  <si>
+    <t>VAC10DATA</t>
+  </si>
+  <si>
+    <t>VAC11DATA</t>
+  </si>
+  <si>
+    <t>VAC12DATA</t>
+  </si>
+  <si>
+    <t>VAC13DATA</t>
+  </si>
+  <si>
+    <t>VAC14DATA</t>
+  </si>
+  <si>
+    <t>VAC15DATA</t>
+  </si>
+  <si>
+    <t>VAC16DATA</t>
+  </si>
+  <si>
+    <t>VAC17DATA</t>
+  </si>
+  <si>
+    <t>VAC18DATA</t>
+  </si>
+  <si>
+    <t>VAC19DATA</t>
+  </si>
+  <si>
+    <t>VAC20DATA</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1095,6 +1155,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1120,7 +1186,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1142,6 +1208,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -3890,8 +3957,8 @@
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65:C65"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4579,93 +4646,253 @@
       <c r="B66" s="10"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B67" s="10"/>
+      <c r="A67" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C67" s="15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B68" s="10"/>
+      <c r="A68" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" s="15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B69" s="10"/>
+      <c r="A69" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C69" s="15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B70" s="10"/>
+      <c r="A70" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C70" s="15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B71" s="10"/>
+      <c r="A71" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C71" s="15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B72" s="10"/>
+      <c r="A72" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C72" s="15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B73" s="10"/>
+      <c r="A73" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C73" s="15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B74" s="10"/>
+      <c r="A74" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C74" s="15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B75" s="10"/>
+      <c r="A75" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" s="15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B76" s="10"/>
+      <c r="A76" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C76" s="15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B77" s="10"/>
+      <c r="A77" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" s="15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B78" s="10"/>
+      <c r="A78" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" s="15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B79" s="10"/>
+      <c r="A79" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C79" s="15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B80" s="10"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="10"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="10"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="10"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="10"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="10"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="10"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C80" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C81" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C82" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C84" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C85" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C86" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B87" s="10"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B88" s="10"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B89" s="10"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B90" s="10"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B91" s="10"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B92" s="10"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B93" s="10"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B94" s="10"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B95" s="10"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B96" s="10"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
@@ -4748,5 +4975,6 @@
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>